--- a/R/Int_BM_scaled_Atl_DynamicBoxesOnly.xlsx
+++ b/R/Int_BM_scaled_Atl_DynamicBoxesOnly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>acared</t>
   </si>
@@ -69,6 +69,9 @@
     <t>bluefi</t>
   </si>
   <si>
+    <t>bluher</t>
+  </si>
+  <si>
     <t>butter</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>sandla</t>
   </si>
   <si>
+    <t>scupzz</t>
+  </si>
+  <si>
     <t>seasca</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>smodog</t>
   </si>
   <si>
+    <t>smoska</t>
+  </si>
+  <si>
     <t>spidog</t>
   </si>
   <si>
@@ -154,6 +163,123 @@
   </si>
   <si>
     <t>yelflo</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>MAK</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>WOL</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>BLF</t>
+  </si>
+  <si>
+    <t>BUT</t>
+  </si>
+  <si>
+    <t>FOU</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>LSK</t>
+  </si>
+  <si>
+    <t>LSQ</t>
+  </si>
+  <si>
+    <t>GOO</t>
+  </si>
+  <si>
+    <t>POU</t>
+  </si>
+  <si>
+    <t>OHK</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>RHK</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>ISQ</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>SMO</t>
+  </si>
+  <si>
+    <t>DOG</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>TYL</t>
+  </si>
+  <si>
+    <t>WHK</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>WIF</t>
+  </si>
+  <si>
+    <t>WSK</t>
+  </si>
+  <si>
+    <t>WTF</t>
+  </si>
+  <si>
+    <t>YTF</t>
   </si>
 </sst>
 </file>
@@ -961,3275 +1087,4781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1"/>
+      <selection sqref="A1:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>22</v>
       </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>2.3392712409743099E-4</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2.7682013703314698E-4</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1.4565340867388401E-3</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>3.9530926035517301E-4</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>9.8024431273303599E-4</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1.35312985735368E-3</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>8.6340112145338204E-4</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>8.7520152640778292E-3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>6.9168103426642702E-4</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>6.0352272776163597E-2</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.19885390743255099</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.7069740778478101E-2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1.1249657121511799E-3</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.99265919181878E-3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>6.2832661532734998E-3</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.18983467989650901</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2.5293845927556399E-2</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1.7996009555719301E-2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.18722597430327101</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.16848770210724701</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>4.6512143256026303E-2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>6.3969770711125404E-2</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>4.9478782960468899E-4</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2.80269866692873E-4</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1.2711146562734E-3</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.45576411733296E-3</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.9574344240235798E-3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.9131357062847499E-3</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>3.3346776179148702E-3</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.8045012682253399E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>2.92820069923806E-3</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.13624337846669499</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.16378073371056701</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>6.2304030544752698E-2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>8.9247356992955794E-3</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>7.2054116689607497E-3</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>2.1790547448734699E-2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.15852870301350899</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>8.3855496849339101E-2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>5.6124178636945E-2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.10450666041817</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>7.8364536984293895E-2</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>3.2176777604576101E-2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5.4514411354542401E-2</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3.4543316645743302E-3</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>5.6091465936521099E-3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.4658286561133599E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>9.5410587511933192E-3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.5075019795435801E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1.9337428732410102E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3.1498729174592302E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>4.6864980315199797E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>2.0821308021723901E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>9.2216057304936705E-2</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2.8827016178643399E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>4.4875331164701597E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>3.4127175143777701E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.96133040696136E-2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>5.0936776794120002E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>4.88621078480087E-2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.14210902530738101</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.13410953474620799</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>5.4293994439298603E-2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>3.6446872109511697E-2</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>5.7446710291966699E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>7.9275804991916707E-2</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1.16850646308086E-3</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1.5964125651423101E-3</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1.6807380094579201E-3</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>3.8160072335033002E-3</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3.7716542342876701E-3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>4.6858478192427404E-3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.6379504251903699E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>7.0858573802373995E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.15336787710037E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.12108674422231</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>7.3631563061016495E-2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>6.0652449646689303E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>4.4616835069946202E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.7559707160093301E-2</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>7.6955284706584304E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>6.3091174329754904E-2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>5.6297430078887101E-2</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>5.1027128981266601E-2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>6.1348864646538701E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>5.9854243517302702E-2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.108819348792526</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>8.9568302637087704E-2</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.14431392503840901</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>8.0923197653103504E-2</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>5.7578753318991399E-2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>4.5935962981285897E-2</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5.0899086234384702E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4.31873671655289E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>4.24029850466928E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3.10199907531549E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3.6881211860148401E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3.1627566133168597E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>3.5498777185216997E-2</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>3.4277623873936701E-2</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>3.9371970383582103E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>3.9296354922836597E-2</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>3.6188693423594397E-2</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3.4075739384936098E-2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>3.2865019797766501E-2</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.6233390546294701E-2</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>3.6094157380975399E-2</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3.4807653425721903E-2</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>4.01755240804288E-2</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>3.6345049409841297E-2</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1.68604178148873E-3</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>8.9408396177652197E-4</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>7.9082127811147703E-4</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>4.7919693502523203E-3</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.5441343634684901E-3</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>2.6356829367944101E-3</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>6.8071550263536298E-3</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.5592431596704001E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>3.5161962111457299E-3</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>3.1316150915502099E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>3.3003954105625399E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.6437274377069901E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>9.8106521417752404E-3</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>8.9263648151915106E-3</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.3733484790437701E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>8.8031427458505798E-2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.13551438735131</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.247960096594215</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>9.1094992498014102E-2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>3.1756576600365197E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>3.1585238539900903E-2</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.212570883305992</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>2.8445154266543E-2</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>3.2843056342938701E-2</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1.8142018796826101E-2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>3.1299374875295598E-2</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>3.4785951600031E-2</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>3.8520306445457203E-2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>3.5928267743871999E-2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4.3640310312710401E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>3.6174754086040498E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>6.5297495923913804E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>8.4265239691558205E-2</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>6.0258597519580202E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>2.92041036459137E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>3.0117532347528401E-2</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3.2987466455745601E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>6.5357133251355407E-2</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>5.4147396462234397E-2</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>6.1205070953213703E-2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>5.9625352368115801E-2</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>6.5047031762289195E-2</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>4.4631823093554499E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>4.8076562055282698E-2</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1.3525096613702801E-2</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>6.5392723998152893E-2</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>6.6101983318752805E-2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>8.6416126355480898E-3</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>7.9304028316593098E-2</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>7.1212868914068403E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.1224655372691401E-2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>3.8641294799701298E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>5.1750826448836801E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>4.7411468777535999E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>4.4387904338372697E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>6.0826943267832598E-2</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>4.3222672414211197E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>5.7000709491657101E-2</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>4.1973016772093599E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>3.0258131389150601E-2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>3.8400215518726098E-2</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>4.5387722478837302E-2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>3.57214905418144E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>3.7796297506794599E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>4.6083259420009397E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>5.5735077664916803E-2</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>5.8052490245267201E-2</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>4.8390756837611897E-2</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>4.9233476273866997E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>4.16880292936362E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>4.33090131565207E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>4.1970100643901498E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>4.0300231484555298E-2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>3.5528270897825703E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>3.5722800811227501E-2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>4.34278561303773E-2</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>5.2835724332391899E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>4.1470003505521297E-2</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>3.2417870157578202E-2</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>4.0784288491511E-2</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>3.4927919796635502E-2</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>5.1332362382857301E-2</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>5.5186947359693699E-2</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>5.8232423658926502E-2</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>5.0424993658837299E-2</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>5.2025548846595597E-2</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>4.8511032403855202E-2</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>4.42278596308062E-2</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>4.7427961278425199E-5</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1.0258161438150299E-3</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>3.0685558772802799E-2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.8755650721949101E-4</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.35722964724112E-2</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>6.4693491600177594E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2.4554609447055E-4</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>2.1163728887695601E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>4.6977552792180001E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>4.6401719994465997E-2</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.31166540013723698</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>4.6420850470488502E-2</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>3.7062867590634797E-2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3.1717286906354801E-2</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1.03071544320663E-2</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>8.9807607894333202E-2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>3.3302571735933498E-2</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>6.4655248179592395E-2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>6.3880805691190506E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3.8992924832639698E-2</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>1.9576651187928E-2</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>2.76099357150844E-2</v>
       </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>1.15379505999775E-2</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>1.3645956385430501E-2</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>3.4638792636549801E-2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2.3766245311238401E-2</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>2.74073282574267E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>4.6001228888765101E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3.2697795610784501E-2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>3.6717718975634701E-2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>6.4179705216051805E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>3.0961347480824599E-2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>4.76247233448088E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>4.8209342590823399E-2</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>2.5262650695214401E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>8.4971037314709993E-2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>6.8598499820120007E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>6.0660144655616199E-2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>5.3121268012951701E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>5.1150913887926197E-2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>5.3134860074218297E-2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>4.58535695691865E-2</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>5.6393953750803701E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>8.3464966920937203E-2</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>1.6469652523134E-3</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>2.6423247940400201E-3</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3.9276286600078703E-3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>1.69486554865165E-3</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>2.7740486296789898E-3</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.9802173122410402E-3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>7.1541446159064598E-3</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>3.5043087198076799E-2</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2.8505200505945499E-3</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.14235008568069299</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.112245407904012</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.53498984669887E-2</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>1.01808298038323E-2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>5.3979647563989703E-3</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>3.1752420565588302E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.100563621872166</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.113444525103107</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>7.8446736228301395E-2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>5.2533948488258701E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>3.42013380785001E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.119571510636135</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.12324791035450799</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>8.3835198638085003E-4</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>4.0933159568027604E-3</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1.7229769863458599E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.58872823037057E-3</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2.1674061751920701E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>4.9682393787774302E-2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.9407020568336202E-2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>6.1847534274749698E-2</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>7.1092399225713795E-2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1.34007669630216E-2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>4.6398466929089201E-2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.10119254534080201</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>5.74761038183145E-2</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.11352457837925101</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.123834212048201</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2.8827794166509199E-2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>7.6159036875844098E-3</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>1.60279534118636E-2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>4.4995363356183003E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>5.5901326804132699E-2</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>8.9734350234250401E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>5.3617059215289198E-2</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4.8374438074854302E-2</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>4.2193232695272302E-2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>4.5494016419322297E-2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>5.6021652417403499E-2</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>4.2578888906996799E-2</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>4.3214049756374398E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>4.6694558141848301E-2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4.3265870396090797E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4.3141950419460499E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>4.61604143327108E-2</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4.3530494228465499E-2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>4.1655458054423902E-2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>4.3803563422323E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>4.4202771475608797E-2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>4.63276044553649E-2</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>4.4142517086962603E-2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>5.5238239532516699E-2</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>5.2374150982555802E-2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>4.3372857534866201E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>4.2755500507936701E-2</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>4.4122399712177199E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>4.1335371446464798E-2</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>3.34970012487237E-2</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>4.1685151336497903E-2</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>9.3867631357583997E-2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>3.8024183025660699E-2</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>5.7977713653282997E-2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>5.4088058168590303E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4.3913800900102301E-2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>4.0513693996791202E-2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>4.3277261500578201E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>4.0127463524324503E-2</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>4.8113668955601402E-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>3.5151642288299201E-2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>3.7015098651207501E-2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>4.2799547109814498E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>3.7587585708411399E-2</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>4.5124351683322399E-2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>4.0631345188045502E-2</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>4.4305369559869801E-2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>4.61494602707445E-2</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>4.5593212171257801E-2</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>4.5603672567058703E-2</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>4.4953087134231497E-2</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>5.8619585923065598E-2</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>3.33320041788987E-2</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>4.4867823983968901E-2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>6.46192188369447E-2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>3.5162433565669199E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>4.1042627761625101E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>6.1875011243252599E-2</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>6.5063945328229303E-2</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>5.4895072174458298E-2</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>3.3196244816449699E-2</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>4.1430942895896203E-2</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>3.64323443870158E-2</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>6.2589635512958597E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>4.9240416731344799E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>4.6455943491337401E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>4.2796706927159103E-2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>3.0955603220063101E-2</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>3.98532223291699E-2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>4.4194170273116798E-2</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>3.95534807228414E-2</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>3.4446986745553798E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>3.9376578950980998E-2</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.6323015116899198E-3</v>
-      </c>
       <c r="C18">
-        <v>5.0182989697571803E-2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.17965916298559501</v>
+        <v>6.7350758613736905E-2</v>
       </c>
       <c r="E18">
-        <v>3.0331524319595501E-3</v>
+        <v>6.2408864584992098E-2</v>
       </c>
       <c r="F18">
-        <v>9.1546879235124695E-2</v>
+        <v>1.7375975162375702E-2</v>
       </c>
       <c r="G18">
-        <v>0.14557446169535701</v>
+        <v>2.1919151046592599E-2</v>
       </c>
       <c r="H18">
-        <v>1.70110365885686E-2</v>
+        <v>5.8836676148106899E-2</v>
       </c>
       <c r="I18">
-        <v>2.5107660929250899E-2</v>
+        <v>6.1536978626353198E-2</v>
       </c>
       <c r="J18">
-        <v>0.11227757116623099</v>
+        <v>4.0748004025297602E-2</v>
       </c>
       <c r="K18">
-        <v>7.6849167102500698E-2</v>
+        <v>6.8584049718117102E-2</v>
       </c>
       <c r="L18">
-        <v>9.5315225382433307E-3</v>
+        <v>1.4488589915286801E-2</v>
       </c>
       <c r="M18">
-        <v>2.8426689660795098E-3</v>
+        <v>0.152409060263269</v>
       </c>
       <c r="N18">
-        <v>3.0699978125956801E-3</v>
+        <v>5.0144600899215602E-2</v>
       </c>
       <c r="O18">
-        <v>0.104126377692301</v>
+        <v>1.2194820596157599E-2</v>
       </c>
       <c r="P18">
-        <v>4.7521548066345298E-3</v>
+        <v>1.1734406906446299E-2</v>
       </c>
       <c r="Q18">
-        <v>1.55447463510303E-2</v>
+        <v>3.4239163317384201E-3</v>
       </c>
       <c r="R18">
-        <v>5.6665216126894902E-2</v>
+        <v>6.5112486119414496E-3</v>
       </c>
       <c r="S18">
-        <v>4.4289839202660497E-2</v>
+        <v>4.5999030838987903E-2</v>
       </c>
       <c r="T18">
-        <v>1.2212760317542501E-2</v>
+        <v>0.12563242046002701</v>
       </c>
       <c r="U18">
-        <v>6.1858775333430904E-3</v>
+        <v>9.1081486335687203E-2</v>
       </c>
       <c r="V18">
-        <v>1.5817759237768299E-2</v>
+        <v>2.95856411313924E-2</v>
       </c>
       <c r="W18">
-        <v>1.5086696071057001E-2</v>
+        <v>2.1659566126441199E-2</v>
+      </c>
+      <c r="X18">
+        <v>8.0254824280153996E-3</v>
+      </c>
+      <c r="Y18">
+        <v>2.8349271229821501E-2</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>6.6969549845686593E-2</v>
-      </c>
       <c r="C19">
-        <v>4.9906696367246497E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>9.1366746241903801E-2</v>
+        <v>5.00733062118498E-2</v>
       </c>
       <c r="E19">
-        <v>6.3523806516676606E-2</v>
+        <v>3.3122228136124199E-2</v>
       </c>
       <c r="F19">
-        <v>5.0717316850642798E-2</v>
+        <v>0.10737252368418899</v>
       </c>
       <c r="G19">
-        <v>8.4798052707753105E-2</v>
+        <v>5.5685988583193298E-2</v>
       </c>
       <c r="H19">
-        <v>6.5969930187173204E-2</v>
+        <v>6.4692592853014499E-2</v>
       </c>
       <c r="I19">
-        <v>2.7110318769491101E-2</v>
+        <v>0.107447524283226</v>
       </c>
       <c r="J19">
-        <v>7.2091016989344101E-2</v>
+        <v>5.8744716915279202E-2</v>
       </c>
       <c r="K19">
-        <v>4.09639960374878E-2</v>
+        <v>2.4091982912753E-2</v>
       </c>
       <c r="L19">
-        <v>2.57498849345957E-2</v>
+        <v>8.8623543867830806E-2</v>
       </c>
       <c r="M19">
-        <v>4.6296431672180297E-2</v>
+        <v>3.6211995163238801E-2</v>
       </c>
       <c r="N19">
-        <v>3.7590086174796297E-2</v>
+        <v>2.3964635056811401E-2</v>
       </c>
       <c r="O19">
-        <v>4.3232089763564401E-2</v>
+        <v>4.11951138373019E-2</v>
       </c>
       <c r="P19">
-        <v>3.2825506138495199E-2</v>
+        <v>3.34020751300452E-2</v>
       </c>
       <c r="Q19">
-        <v>2.05617318857385E-2</v>
+        <v>6.1927985218232097E-2</v>
       </c>
       <c r="R19">
-        <v>4.0340439050372802E-2</v>
+        <v>2.9762867856696101E-2</v>
       </c>
       <c r="S19">
-        <v>4.5432615136903699E-2</v>
+        <v>1.8401756417699301E-2</v>
       </c>
       <c r="T19">
-        <v>2.08432504358156E-2</v>
+        <v>3.5513726426899199E-2</v>
       </c>
       <c r="U19">
-        <v>2.1475619654402301E-2</v>
+        <v>4.0104088546378799E-2</v>
       </c>
       <c r="V19">
-        <v>2.3783446556790599E-2</v>
+        <v>1.9137294194774002E-2</v>
       </c>
       <c r="W19">
-        <v>2.8451468082939101E-2</v>
+        <v>2.0033593779984801E-2</v>
+      </c>
+      <c r="X19">
+        <v>2.43212023130762E-2</v>
+      </c>
+      <c r="Y19">
+        <v>2.6169258611401802E-2</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>6.5606380726276906E-2</v>
-      </c>
       <c r="C20">
-        <v>6.4274563016967198E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>8.4086450571498605E-2</v>
+        <v>0.118768987074875</v>
       </c>
       <c r="E20">
-        <v>4.4302341137151598E-2</v>
+        <v>0.13366228004552699</v>
       </c>
       <c r="F20">
-        <v>8.9460535215389797E-2</v>
+        <v>8.5524093787006497E-2</v>
       </c>
       <c r="G20">
-        <v>0.110720674451297</v>
+        <v>6.5163194363881793E-2</v>
       </c>
       <c r="H20">
-        <v>3.3180200253587699E-2</v>
+        <v>6.5241473538625694E-2</v>
       </c>
       <c r="I20">
-        <v>1.70103026924079E-2</v>
+        <v>4.70893282829591E-2</v>
       </c>
       <c r="J20">
-        <v>6.3816664031080994E-2</v>
+        <v>4.2408790560922699E-2</v>
       </c>
       <c r="K20">
-        <v>2.9224043434193901E-2</v>
+        <v>2.0845123069109499E-2</v>
       </c>
       <c r="L20">
-        <v>3.8083276709221597E-2</v>
+        <v>2.5935434801792102E-2</v>
       </c>
       <c r="M20">
-        <v>2.2269223128691999E-2</v>
+        <v>2.9694147914324901E-2</v>
       </c>
       <c r="N20">
-        <v>2.8314926019628001E-2</v>
+        <v>3.90976599529652E-2</v>
       </c>
       <c r="O20">
-        <v>7.7454372773656605E-2</v>
+        <v>2.2178764877947298E-2</v>
       </c>
       <c r="P20">
-        <v>3.4996508983751402E-2</v>
+        <v>3.9282782635132601E-2</v>
       </c>
       <c r="Q20">
-        <v>2.5182663359564001E-2</v>
+        <v>2.6502292329447698E-2</v>
       </c>
       <c r="R20">
-        <v>2.3720206615673999E-2</v>
+        <v>3.5127208130077102E-2</v>
       </c>
       <c r="S20">
-        <v>2.4627482278206301E-2</v>
+        <v>2.7064544038530199E-2</v>
       </c>
       <c r="T20">
-        <v>2.6817334844737899E-2</v>
+        <v>2.6709847914950201E-2</v>
       </c>
       <c r="U20">
-        <v>2.7491865646058499E-2</v>
+        <v>2.6688876554991699E-2</v>
       </c>
       <c r="V20">
-        <v>3.6246950237398497E-2</v>
+        <v>3.11811213164923E-2</v>
       </c>
       <c r="W20">
-        <v>3.3113033873559801E-2</v>
+        <v>3.1582130002259998E-2</v>
+      </c>
+      <c r="X20">
+        <v>3.2570763138195701E-2</v>
+      </c>
+      <c r="Y20">
+        <v>2.7681155669985899E-2</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5.3121717750238796E-4</v>
-      </c>
       <c r="C21">
-        <v>8.6267970871395892E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2.2354002605367199E-2</v>
+        <v>9.0154852123631903E-4</v>
       </c>
       <c r="E21">
-        <v>1.9012152605463E-3</v>
+        <v>2.1765500132453399E-2</v>
       </c>
       <c r="F21">
-        <v>2.45132589926833E-2</v>
+        <v>8.5405499000631005E-2</v>
       </c>
       <c r="G21">
-        <v>3.5738634781353702E-2</v>
+        <v>3.4023938843958899E-3</v>
       </c>
       <c r="H21">
-        <v>1.7266156302384799E-2</v>
+        <v>8.7413372647201296E-2</v>
       </c>
       <c r="I21">
-        <v>2.4292592879317999E-2</v>
+        <v>0.13379509492514599</v>
       </c>
       <c r="J21">
-        <v>4.03410083316715E-2</v>
+        <v>3.1607372919844001E-2</v>
       </c>
       <c r="K21">
-        <v>3.8914495117279901E-2</v>
+        <v>1.3623091095685901E-2</v>
       </c>
       <c r="L21">
-        <v>5.7660022336375898E-2</v>
+        <v>9.8636112061201195E-2</v>
       </c>
       <c r="M21">
-        <v>7.8805754652797502E-2</v>
+        <v>2.7260852646441899E-2</v>
       </c>
       <c r="N21">
-        <v>5.3783267385864302E-2</v>
+        <v>3.8323372798512299E-2</v>
       </c>
       <c r="O21">
-        <v>6.9820000044735903E-2</v>
+        <v>4.2534348976933999E-2</v>
       </c>
       <c r="P21">
-        <v>0.125033983379919</v>
+        <v>1.8958360263632901E-2</v>
       </c>
       <c r="Q21">
-        <v>4.9011952867974197E-2</v>
+        <v>0.116994589104691</v>
       </c>
       <c r="R21">
-        <v>2.6849343182689701E-2</v>
+        <v>5.79201408414615E-2</v>
       </c>
       <c r="S21">
-        <v>3.4318178836091201E-2</v>
+        <v>2.93737254153087E-2</v>
       </c>
       <c r="T21">
-        <v>5.3707912240484698E-2</v>
+        <v>1.83008479654037E-2</v>
       </c>
       <c r="U21">
-        <v>5.7318400408161899E-2</v>
+        <v>2.56165946726227E-2</v>
       </c>
       <c r="V21">
-        <v>9.1923546872979101E-2</v>
+        <v>2.95549954684984E-2</v>
       </c>
       <c r="W21">
-        <v>8.7288259256679795E-2</v>
+        <v>3.1429967122866699E-2</v>
+      </c>
+      <c r="X21">
+        <v>4.49608570020259E-2</v>
+      </c>
+      <c r="Y21">
+        <v>4.22213625338052E-2</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>3.598867135304E-2</v>
-      </c>
       <c r="C22">
-        <v>2.39607532997483E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.37859354643065E-2</v>
+        <v>2.5597082980080099E-4</v>
       </c>
       <c r="E22">
-        <v>5.65541568075308E-2</v>
+        <v>1.53471595803198E-3</v>
       </c>
       <c r="F22">
-        <v>3.3976553978167803E-2</v>
+        <v>4.3294663776394402E-3</v>
       </c>
       <c r="G22">
-        <v>3.58171734264831E-2</v>
+        <v>5.5057142597097195E-4</v>
       </c>
       <c r="H22">
-        <v>4.77523184241E-2</v>
+        <v>5.8741230827840203E-3</v>
       </c>
       <c r="I22">
-        <v>3.1870563235243003E-2</v>
+        <v>9.7958218210122908E-3</v>
       </c>
       <c r="J22">
-        <v>3.8399029794116399E-2</v>
+        <v>4.1347814493279201E-3</v>
       </c>
       <c r="K22">
-        <v>3.6170247331790799E-2</v>
+        <v>2.86770423234496E-2</v>
       </c>
       <c r="L22">
-        <v>5.45396992497739E-2</v>
+        <v>1.49267602384735E-2</v>
       </c>
       <c r="M22">
-        <v>6.2106822541554897E-2</v>
+        <v>4.31312521290899E-2</v>
       </c>
       <c r="N22">
-        <v>4.2720120097116697E-2</v>
+        <v>7.5973173394673604E-2</v>
       </c>
       <c r="O22">
-        <v>4.3742657659438397E-2</v>
+        <v>7.77046465550017E-2</v>
       </c>
       <c r="P22">
-        <v>7.1138330687818704E-2</v>
+        <v>3.7915530125298399E-2</v>
       </c>
       <c r="Q22">
-        <v>4.7816792325796102E-2</v>
+        <v>4.98889677689172E-2</v>
       </c>
       <c r="R22">
-        <v>2.5656760791266199E-2</v>
+        <v>0.12183810140221001</v>
       </c>
       <c r="S22">
-        <v>3.0077949578814201E-2</v>
+        <v>6.6191041531245706E-2</v>
       </c>
       <c r="T22">
-        <v>5.2420382318905702E-2</v>
+        <v>2.66608370986487E-2</v>
       </c>
       <c r="U22">
-        <v>5.6809901866343597E-2</v>
+        <v>3.2986397633160802E-2</v>
       </c>
       <c r="V22">
-        <v>8.7352976455085399E-2</v>
+        <v>7.4649063347128494E-2</v>
       </c>
       <c r="W22">
-        <v>7.1342203313559296E-2</v>
+        <v>7.6666953075192196E-2</v>
+      </c>
+      <c r="X22">
+        <v>0.131958816870272</v>
+      </c>
+      <c r="Y22">
+        <v>0.114355965562671</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.50573067654689E-2</v>
-      </c>
       <c r="C23">
-        <v>3.7265660723117898E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>8.2192263980261096E-2</v>
+        <v>4.2478728661764803E-2</v>
       </c>
       <c r="E23">
-        <v>4.8124886536465801E-2</v>
+        <v>3.4908151926074903E-2</v>
       </c>
       <c r="F23">
-        <v>6.63180603290799E-2</v>
+        <v>2.1369591133259001E-2</v>
       </c>
       <c r="G23">
-        <v>6.20951861278932E-2</v>
+        <v>8.1916674503479905E-2</v>
       </c>
       <c r="H23">
-        <v>5.8871121645677101E-2</v>
+        <v>5.4142080945550002E-2</v>
       </c>
       <c r="I23">
-        <v>5.0379865962632303E-2</v>
+        <v>5.11431347721234E-2</v>
       </c>
       <c r="J23">
-        <v>6.0196912461454297E-2</v>
+        <v>7.7429914664913696E-2</v>
       </c>
       <c r="K23">
-        <v>2.9025169317533898E-2</v>
+        <v>4.5550296078912603E-2</v>
       </c>
       <c r="L23">
-        <v>2.7307879532507101E-2</v>
+        <v>5.7169494245151498E-2</v>
       </c>
       <c r="M23">
-        <v>5.5408959796209099E-2</v>
+        <v>3.2770695845663E-2</v>
       </c>
       <c r="N23">
-        <v>6.4864876388169193E-2</v>
+        <v>3.0437051511687602E-2</v>
       </c>
       <c r="O23">
-        <v>6.3954301645910303E-2</v>
+        <v>6.1362942905568402E-2</v>
       </c>
       <c r="P23">
-        <v>5.2559427852132197E-2</v>
+        <v>7.0396034932755994E-2</v>
       </c>
       <c r="Q23">
-        <v>2.5210460671538901E-2</v>
+        <v>4.9989664720630302E-2</v>
       </c>
       <c r="R23">
-        <v>3.2326646561722697E-2</v>
+        <v>5.4349426732073797E-2</v>
       </c>
       <c r="S23">
-        <v>3.4779593470746002E-2</v>
+        <v>2.7681572676188801E-2</v>
       </c>
       <c r="T23">
-        <v>3.1385872826748699E-2</v>
+        <v>3.1917885030056103E-2</v>
       </c>
       <c r="U23">
-        <v>2.8780071378279998E-2</v>
+        <v>3.4861671399826898E-2</v>
       </c>
       <c r="V23">
-        <v>3.3060126657867603E-2</v>
+        <v>3.04392903463198E-2</v>
       </c>
       <c r="W23">
-        <v>4.0835349368583802E-2</v>
+        <v>3.29902538627024E-2</v>
+      </c>
+      <c r="X23">
+        <v>3.7356545546133699E-2</v>
+      </c>
+      <c r="Y23">
+        <v>3.93388975591632E-2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>2.98465146707068E-2</v>
-      </c>
       <c r="C24">
-        <v>5.7307352376020297E-2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>7.3676043468083902E-2</v>
+        <v>3.1494661988793499E-2</v>
       </c>
       <c r="E24">
-        <v>4.1124897688596403E-2</v>
+        <v>6.7620585871301306E-2</v>
       </c>
       <c r="F24">
-        <v>6.8984072121124798E-2</v>
+        <v>0.120017782550216</v>
       </c>
       <c r="G24">
-        <v>8.30747046005815E-2</v>
+        <v>3.9972740626571399E-2</v>
       </c>
       <c r="H24">
-        <v>6.0407274180872002E-2</v>
+        <v>8.2454991730880098E-2</v>
       </c>
       <c r="I24">
-        <v>4.1409303543859501E-2</v>
+        <v>9.0216459615476696E-2</v>
       </c>
       <c r="J24">
-        <v>6.9657464213968998E-2</v>
+        <v>5.9120890268508003E-2</v>
       </c>
       <c r="K24">
-        <v>3.65101032150267E-2</v>
+        <v>4.0477732189156998E-2</v>
       </c>
       <c r="L24">
-        <v>3.96489122519866E-2</v>
+        <v>7.5532689510869097E-2</v>
       </c>
       <c r="M24">
-        <v>3.3681473901266697E-2</v>
+        <v>3.3042440708710298E-2</v>
       </c>
       <c r="N24">
-        <v>5.2467760470097199E-2</v>
+        <v>2.2965495489725998E-2</v>
       </c>
       <c r="O24">
-        <v>5.2245945238831602E-2</v>
+        <v>2.8612783523135701E-2</v>
       </c>
       <c r="P24">
-        <v>3.2629000902657301E-2</v>
+        <v>5.2898770114609299E-2</v>
       </c>
       <c r="Q24">
-        <v>3.2112511842277598E-2</v>
+        <v>5.88816926290847E-2</v>
       </c>
       <c r="R24">
-        <v>3.3838812454642701E-2</v>
+        <v>3.1448086243309699E-2</v>
       </c>
       <c r="S24">
-        <v>3.6626839073096898E-2</v>
+        <v>1.7195061588395101E-2</v>
       </c>
       <c r="T24">
-        <v>3.1394358774869097E-2</v>
+        <v>3.0262522106236801E-2</v>
       </c>
       <c r="U24">
-        <v>3.29330583602215E-2</v>
+        <v>3.37681767930725E-2</v>
       </c>
       <c r="V24">
-        <v>3.0446991427973399E-2</v>
+        <v>1.83743672308967E-2</v>
       </c>
       <c r="W24">
-        <v>2.99766052232384E-2</v>
+        <v>1.77842527309231E-2</v>
+      </c>
+      <c r="X24">
+        <v>2.3172693813497999E-2</v>
+      </c>
+      <c r="Y24">
+        <v>2.4685122676629399E-2</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.0078650846858399E-2</v>
-      </c>
       <c r="C25">
-        <v>1.2359456961964501E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2.6927065700505799E-2</v>
+        <v>3.0234118231569E-3</v>
       </c>
       <c r="E25">
-        <v>3.56973945956841E-2</v>
+        <v>1.00741128045827E-2</v>
       </c>
       <c r="F25">
-        <v>4.5100550881747303E-2</v>
+        <v>5.21351882138315E-2</v>
       </c>
       <c r="G25">
-        <v>5.6852797987849597E-2</v>
+        <v>5.0976284405087396E-3</v>
       </c>
       <c r="H25">
-        <v>4.52639277372274E-2</v>
+        <v>3.6401849147608398E-2</v>
       </c>
       <c r="I25">
-        <v>3.5958834929830902E-2</v>
+        <v>7.2931996295614004E-2</v>
       </c>
       <c r="J25">
-        <v>3.8577137572357999E-2</v>
+        <v>1.25040201217977E-2</v>
       </c>
       <c r="K25">
-        <v>6.7625248051940701E-2</v>
+        <v>1.7522154838183E-2</v>
       </c>
       <c r="L25">
-        <v>6.4180501599677697E-2</v>
+        <v>4.1819576090161403E-2</v>
       </c>
       <c r="M25">
-        <v>5.8670224345144399E-2</v>
+        <v>4.0619804380772298E-2</v>
       </c>
       <c r="N25">
-        <v>2.1956850702464802E-2</v>
+        <v>9.3099284914122504E-2</v>
       </c>
       <c r="O25">
-        <v>5.5457643120848298E-2</v>
+        <v>4.61481574352295E-2</v>
       </c>
       <c r="P25">
-        <v>5.5768194679284198E-2</v>
+        <v>5.3406745911000501E-3</v>
       </c>
       <c r="Q25">
-        <v>6.0927333667003598E-2</v>
+        <v>5.1850058226165403E-2</v>
       </c>
       <c r="R25">
-        <v>5.2361226194012199E-2</v>
+        <v>4.14292179295912E-2</v>
       </c>
       <c r="S25">
-        <v>4.6386322731438903E-2</v>
+        <v>8.7431639255482405E-2</v>
       </c>
       <c r="T25">
-        <v>5.1037294889285899E-2</v>
+        <v>4.7754534026868398E-2</v>
       </c>
       <c r="U25">
-        <v>5.0471269328461597E-2</v>
+        <v>4.18167214880905E-2</v>
       </c>
       <c r="V25">
-        <v>4.9197964425111297E-2</v>
+        <v>7.91937626675282E-2</v>
       </c>
       <c r="W25">
-        <v>5.9144109051300499E-2</v>
+        <v>8.6632238749188503E-2</v>
+      </c>
+      <c r="X25">
+        <v>6.8293482189911603E-2</v>
+      </c>
+      <c r="Y25">
+        <v>5.88804863705049E-2</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>3.0096260333831301E-4</v>
-      </c>
       <c r="C26">
-        <v>2.73050290196884E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2.8255482402629001E-2</v>
+        <v>1.4744227117688399E-2</v>
       </c>
       <c r="E26">
-        <v>8.6585546731013699E-4</v>
+        <v>1.6276016293203899E-2</v>
       </c>
       <c r="F26">
-        <v>2.0637117635529299E-2</v>
+        <v>6.0068971166783299E-3</v>
       </c>
       <c r="G26">
-        <v>2.17230118066341E-2</v>
+        <v>5.2118715125451499E-2</v>
       </c>
       <c r="H26">
-        <v>1.01974130270974E-2</v>
+        <v>4.6102520886704801E-2</v>
       </c>
       <c r="I26">
-        <v>8.5171735829993406E-2</v>
+        <v>4.3921772373361902E-2</v>
       </c>
       <c r="J26">
-        <v>1.72578188089915E-2</v>
+        <v>6.0776582409264999E-2</v>
       </c>
       <c r="K26">
-        <v>9.7767798452934304E-2</v>
+        <v>6.0598413585799697E-2</v>
       </c>
       <c r="L26">
-        <v>8.7773516059165002E-2</v>
+        <v>3.4004812814752601E-2</v>
       </c>
       <c r="M26">
-        <v>5.1734844429907299E-2</v>
+        <v>8.8872953007387803E-2</v>
       </c>
       <c r="N26">
-        <v>1.1242059014356201E-2</v>
+        <v>5.9211188079516697E-2</v>
       </c>
       <c r="O26">
-        <v>5.1554984388424298E-2</v>
+        <v>6.1670796080928902E-2</v>
       </c>
       <c r="P26">
-        <v>5.6351893174347301E-2</v>
+        <v>3.1158545321374499E-2</v>
       </c>
       <c r="Q26">
-        <v>6.7936102404122206E-2</v>
+        <v>5.6620577506869801E-2</v>
       </c>
       <c r="R26">
-        <v>5.6819659270133702E-2</v>
+        <v>5.6083982231455901E-2</v>
       </c>
       <c r="S26">
-        <v>5.7897530299919099E-2</v>
+        <v>4.748755924419E-2</v>
       </c>
       <c r="T26">
-        <v>6.7345500828644198E-2</v>
+        <v>4.7624605611204497E-2</v>
       </c>
       <c r="U26">
-        <v>5.1578196097156498E-2</v>
+        <v>4.4371088011210501E-2</v>
       </c>
       <c r="V26">
-        <v>7.9501130523772501E-2</v>
+        <v>3.97855458474453E-2</v>
       </c>
       <c r="W26">
-        <v>7.5356884573625396E-2</v>
+        <v>3.2862791805678901E-2</v>
+      </c>
+      <c r="X26">
+        <v>4.4094943248812198E-2</v>
+      </c>
+      <c r="Y26">
+        <v>5.5605466281018902E-2</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>3.8971188589590101E-4</v>
-      </c>
       <c r="C27">
-        <v>8.7268319290627295E-4</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2.0254609604863399E-2</v>
+        <v>1.0831671614188901E-3</v>
       </c>
       <c r="E27">
-        <v>1.1134118825145199E-3</v>
+        <v>1.6403956790461E-3</v>
       </c>
       <c r="F27">
-        <v>5.0225878030414001E-3</v>
+        <v>0.40842705987271299</v>
       </c>
       <c r="G27">
-        <v>1.0690123260097001E-2</v>
+        <v>1.14433066495132E-3</v>
       </c>
       <c r="H27">
-        <v>3.89737563022807E-3</v>
+        <v>8.1893782954646596E-2</v>
       </c>
       <c r="I27">
-        <v>2.1716260607360701E-2</v>
+        <v>0.14291988185929699</v>
       </c>
       <c r="J27">
-        <v>7.11618581922825E-3</v>
+        <v>6.7561091713944196E-4</v>
       </c>
       <c r="K27">
-        <v>5.0364912171655403E-2</v>
+        <v>1.3371956112412499E-3</v>
       </c>
       <c r="L27">
-        <v>0.118402029592154</v>
+        <v>7.2992395775055896E-2</v>
       </c>
       <c r="M27">
-        <v>4.6938424331776203E-2</v>
+        <v>1.1440756782693301E-2</v>
       </c>
       <c r="N27">
-        <v>1.11254452744734E-2</v>
+        <v>1.5273514921059999E-2</v>
       </c>
       <c r="O27">
-        <v>1.70644083857797E-2</v>
+        <v>3.07047427158322E-3</v>
       </c>
       <c r="P27">
-        <v>4.7333034123463603E-2</v>
+        <v>2.0246850670809199E-4</v>
       </c>
       <c r="Q27">
-        <v>0.106641806471131</v>
+        <v>0.114768369963022</v>
       </c>
       <c r="R27">
-        <v>6.1027975333912597E-2</v>
+        <v>3.0418597412914201E-2</v>
       </c>
       <c r="S27">
-        <v>4.7324881478880101E-2</v>
+        <v>1.3082825208284E-2</v>
       </c>
       <c r="T27">
-        <v>0.10423190543255</v>
+        <v>7.7002705375667302E-3</v>
       </c>
       <c r="U27">
-        <v>0.10146796090519999</v>
+        <v>1.65941570134438E-2</v>
       </c>
       <c r="V27">
-        <v>0.12716013512669799</v>
+        <v>1.1336710931270101E-2</v>
       </c>
       <c r="W27">
-        <v>8.9844131686191306E-2</v>
+        <v>8.2587950544127098E-3</v>
+      </c>
+      <c r="X27">
+        <v>9.2389521578560094E-3</v>
+      </c>
+      <c r="Y27">
+        <v>4.6500286743676997E-2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>6.7493107494448201E-3</v>
-      </c>
       <c r="C28">
-        <v>8.2190532970614991E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.786522132467E-2</v>
+        <v>3.0516752248808103E-4</v>
       </c>
       <c r="E28">
-        <v>6.3579104897414198E-3</v>
+        <v>1.08270683387105E-3</v>
       </c>
       <c r="F28">
-        <v>1.96458421047771E-2</v>
+        <v>2.0155870041952402E-3</v>
       </c>
       <c r="G28">
-        <v>3.9572870383399301E-2</v>
+        <v>7.0398747164111505E-4</v>
       </c>
       <c r="H28">
-        <v>8.3280584308494908E-3</v>
+        <v>1.6417010602295401E-3</v>
       </c>
       <c r="I28">
-        <v>2.1234637426638701E-2</v>
+        <v>4.1488035651159796E-3</v>
       </c>
       <c r="J28">
-        <v>3.0053670509998801E-2</v>
+        <v>3.0896123465517298E-3</v>
       </c>
       <c r="K28">
-        <v>5.7478472779019102E-2</v>
+        <v>2.6662657782141799E-2</v>
       </c>
       <c r="L28">
-        <v>9.24044209450334E-2</v>
+        <v>2.5867908768260599E-3</v>
       </c>
       <c r="M28">
-        <v>4.0653808367643603E-2</v>
+        <v>6.6054750351151201E-2</v>
       </c>
       <c r="N28">
-        <v>6.4022445979012204E-3</v>
+        <v>0.103850491390318</v>
       </c>
       <c r="O28">
-        <v>5.7323735583385403E-2</v>
+        <v>4.0437391821532997E-2</v>
       </c>
       <c r="P28">
-        <v>3.5485556688679698E-2</v>
+        <v>8.0107275695761107E-3</v>
       </c>
       <c r="Q28">
-        <v>8.7437229782890605E-2</v>
+        <v>8.4274175122243007E-3</v>
       </c>
       <c r="R28">
-        <v>3.3564252063571498E-2</v>
+        <v>4.8526322291753701E-2</v>
       </c>
       <c r="S28">
-        <v>3.6106918227920899E-2</v>
+        <v>0.103885453563528</v>
       </c>
       <c r="T28">
-        <v>9.5794324963299093E-2</v>
+        <v>5.17116850266078E-2</v>
       </c>
       <c r="U28">
-        <v>9.5770458507382999E-2</v>
+        <v>4.7978782883696301E-2</v>
       </c>
       <c r="V28">
-        <v>0.106606007792206</v>
+        <v>0.10819849794533</v>
       </c>
       <c r="W28">
-        <v>9.6945994984485806E-2</v>
+        <v>0.102549013548717</v>
+      </c>
+      <c r="X28">
+        <v>0.14660395820333</v>
+      </c>
+      <c r="Y28">
+        <v>0.121528493429174</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>3.95136690650148E-4</v>
-      </c>
       <c r="C29">
-        <v>3.2837918438443098E-3</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3.3187585717197501E-2</v>
+        <v>4.58805703165988E-3</v>
       </c>
       <c r="E29">
-        <v>1.03649523584068E-3</v>
+        <v>6.51088810811787E-3</v>
       </c>
       <c r="F29">
-        <v>1.92438373722215E-2</v>
+        <v>2.2203909065637E-2</v>
       </c>
       <c r="G29">
-        <v>3.3528364400006297E-2</v>
+        <v>4.7360089539676097E-3</v>
       </c>
       <c r="H29">
-        <v>9.7376312205059695E-3</v>
+        <v>2.2451529081926599E-2</v>
       </c>
       <c r="I29">
-        <v>2.9401079048624001E-2</v>
+        <v>4.5098096171134902E-2</v>
       </c>
       <c r="J29">
-        <v>2.9229909135568801E-2</v>
+        <v>1.10553581565823E-2</v>
       </c>
       <c r="K29">
-        <v>8.7540773836774097E-2</v>
+        <v>2.40158873284948E-2</v>
       </c>
       <c r="L29">
-        <v>9.8945697147776707E-2</v>
+        <v>3.7136348807287202E-2</v>
       </c>
       <c r="M29">
-        <v>7.4254227431902603E-2</v>
+        <v>7.0625712971409196E-2</v>
       </c>
       <c r="N29">
-        <v>9.6057248933580398E-3</v>
+        <v>0.10097818035909201</v>
       </c>
       <c r="O29">
-        <v>5.6975925899938197E-2</v>
+        <v>6.5231917013977805E-2</v>
       </c>
       <c r="P29">
-        <v>4.3833663335565203E-2</v>
+        <v>9.2260376243472296E-3</v>
       </c>
       <c r="Q29">
-        <v>9.8530901470029603E-2</v>
+        <v>7.1643734519892796E-2</v>
       </c>
       <c r="R29">
-        <v>6.5290494585773906E-2</v>
+        <v>3.7607394117187998E-2</v>
       </c>
       <c r="S29">
-        <v>5.8558714140132903E-2</v>
+        <v>9.3621896103165098E-2</v>
       </c>
       <c r="T29">
-        <v>7.1512848955254699E-2</v>
+        <v>5.2845775203321101E-2</v>
       </c>
       <c r="U29">
-        <v>7.0995850788073994E-2</v>
+        <v>4.7637491883066797E-2</v>
       </c>
       <c r="V29">
-        <v>4.5805542532993702E-2</v>
+        <v>7.8814020134348503E-2</v>
       </c>
       <c r="W29">
-        <v>5.9105804317966998E-2</v>
+        <v>8.0973621282179803E-2</v>
+      </c>
+      <c r="X29">
+        <v>5.4868350910578102E-2</v>
+      </c>
+      <c r="Y29">
+        <v>5.8129785172625598E-2</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>5.6340137027715301E-2</v>
-      </c>
       <c r="C30">
-        <v>3.2902332859075401E-2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>5.2234493913962302E-2</v>
+        <v>5.4736006489819E-4</v>
       </c>
       <c r="E30">
-        <v>4.5223261434564802E-2</v>
+        <v>3.72863958443077E-2</v>
       </c>
       <c r="F30">
-        <v>3.6421128792269698E-2</v>
+        <v>0.63011728418584201</v>
       </c>
       <c r="G30">
-        <v>4.27032228955452E-2</v>
+        <v>6.31545463955713E-4</v>
       </c>
       <c r="H30">
-        <v>5.7266592892167199E-2</v>
+        <v>0.111324158729389</v>
       </c>
       <c r="I30">
-        <v>4.4884977180547403E-2</v>
+        <v>5.1095801578017401E-2</v>
       </c>
       <c r="J30">
-        <v>4.7514730635597399E-2</v>
+        <v>1.1177748911685101E-3</v>
       </c>
       <c r="K30">
-        <v>3.6423254427893799E-2</v>
+        <v>6.3490097308912695E-4</v>
       </c>
       <c r="L30">
-        <v>4.85420134158887E-2</v>
+        <v>3.93246924599586E-2</v>
       </c>
       <c r="M30">
-        <v>4.4757435764812302E-2</v>
+        <v>6.5885550108984005E-4</v>
       </c>
       <c r="N30">
-        <v>2.11894022738526E-2</v>
+        <v>5.9307164298505804E-3</v>
       </c>
       <c r="O30">
-        <v>5.35226201147216E-2</v>
+        <v>3.9594916042899299E-4</v>
       </c>
       <c r="P30">
-        <v>4.7476504865899501E-2</v>
+        <v>1.99238487192666E-4</v>
       </c>
       <c r="Q30">
-        <v>5.2368853627774603E-2</v>
+        <v>5.5557514010159903E-2</v>
       </c>
       <c r="R30">
-        <v>4.2886384324133497E-2</v>
+        <v>1.8592333128023099E-3</v>
       </c>
       <c r="S30">
-        <v>3.8619132156345701E-2</v>
+        <v>1.22503805638915E-3</v>
       </c>
       <c r="T30">
-        <v>5.2092625816263297E-2</v>
+        <v>1.14114267324469E-3</v>
       </c>
       <c r="U30">
-        <v>4.6003316708651799E-2</v>
+        <v>6.2912881872711898E-3</v>
       </c>
       <c r="V30">
-        <v>4.8359671643820198E-2</v>
+        <v>1.5258437528343799E-3</v>
       </c>
       <c r="W30">
-        <v>5.2267907228497598E-2</v>
+        <v>1.8422124183770201E-3</v>
+      </c>
+      <c r="X30">
+        <v>8.2761829626468095E-3</v>
+      </c>
+      <c r="Y30">
+        <v>4.3016870857086401E-2</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>7.7130880541785201E-3</v>
+      </c>
+      <c r="E31">
+        <v>1.6216511519793201E-2</v>
+      </c>
+      <c r="F31">
+        <v>5.9602959499971297E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.4759019273888001E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.7494398938560899E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.4887391182836598E-2</v>
+      </c>
+      <c r="J31">
+        <v>2.29048155078393E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.143893397778385</v>
+      </c>
+      <c r="L31">
+        <v>3.0649744312718202E-2</v>
+      </c>
+      <c r="M31">
+        <v>8.4730105120090896E-2</v>
+      </c>
+      <c r="N31">
+        <v>4.1670939715018798E-2</v>
+      </c>
+      <c r="O31">
+        <v>4.2874128348063999E-2</v>
+      </c>
+      <c r="P31">
+        <v>3.6726558526727501E-2</v>
+      </c>
+      <c r="Q31">
+        <v>4.06847118960426E-2</v>
+      </c>
+      <c r="R31">
+        <v>3.5795218535435401E-2</v>
+      </c>
+      <c r="S31">
+        <v>6.7472399166221594E-2</v>
+      </c>
+      <c r="T31">
+        <v>6.3748364518573103E-2</v>
+      </c>
+      <c r="U31">
+        <v>6.3886057607523403E-2</v>
+      </c>
+      <c r="V31">
+        <v>5.8865460039232202E-2</v>
+      </c>
+      <c r="W31">
+        <v>2.6831148047734999E-2</v>
+      </c>
+      <c r="X31">
+        <v>3.6098723983459202E-2</v>
+      </c>
+      <c r="Y31">
+        <v>5.24948584277053E-2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6.1565069340606703E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.6075062769126198E-2</v>
+      </c>
+      <c r="F32">
+        <v>7.3749652110522396E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.7887682196068398E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.1543841589434099E-2</v>
+      </c>
+      <c r="I32">
+        <v>5.18700390089556E-2</v>
+      </c>
+      <c r="J32">
+        <v>6.0228838165663698E-2</v>
+      </c>
+      <c r="K32">
+        <v>2.5794657954490499E-2</v>
+      </c>
+      <c r="L32">
+        <v>4.8884155416639999E-2</v>
+      </c>
+      <c r="M32">
+        <v>2.5582305442249102E-2</v>
+      </c>
+      <c r="N32">
+        <v>4.8348454748637401E-2</v>
+      </c>
+      <c r="O32">
+        <v>4.25645695307885E-2</v>
+      </c>
+      <c r="P32">
+        <v>1.9088889827558301E-2</v>
+      </c>
+      <c r="Q32">
+        <v>5.2936799726577201E-2</v>
+      </c>
+      <c r="R32">
+        <v>4.73044710575646E-2</v>
+      </c>
+      <c r="S32">
+        <v>4.57204531764792E-2</v>
+      </c>
+      <c r="T32">
+        <v>3.5999001764852399E-2</v>
+      </c>
+      <c r="U32">
+        <v>3.1486247859979902E-2</v>
+      </c>
+      <c r="V32">
+        <v>4.7257025270820201E-2</v>
+      </c>
+      <c r="W32">
+        <v>4.6793104997002899E-2</v>
+      </c>
+      <c r="X32">
+        <v>4.8166274239077399E-2</v>
+      </c>
+      <c r="Y32">
+        <v>5.1153403806905098E-2</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>7.3701588368265802E-4</v>
       </c>
-      <c r="C31">
+      <c r="E33">
         <v>4.1665836816989002E-2</v>
       </c>
-      <c r="D31">
+      <c r="F33">
         <v>0.110872276279753</v>
       </c>
-      <c r="E31">
+      <c r="G33">
         <v>1.6401615765260101E-3</v>
       </c>
-      <c r="F31">
+      <c r="H33">
         <v>9.0893582360363198E-2</v>
       </c>
-      <c r="G31">
+      <c r="I33">
         <v>4.9398158440851901E-2</v>
       </c>
-      <c r="H31">
+      <c r="J33">
         <v>2.1004791657245399E-2</v>
       </c>
-      <c r="I31">
+      <c r="K33">
         <v>2.0644139814168901E-2</v>
       </c>
-      <c r="J31">
+      <c r="L33">
         <v>2.7334082465395499E-2</v>
       </c>
-      <c r="K31">
+      <c r="M33">
         <v>2.01043890175652E-2</v>
       </c>
-      <c r="L31">
+      <c r="N33">
         <v>5.2180561774463001E-2</v>
       </c>
-      <c r="M31">
+      <c r="O33">
         <v>4.4662885027860803E-2</v>
       </c>
-      <c r="N31">
+      <c r="P33">
         <v>8.7431377549299499E-3</v>
       </c>
-      <c r="O31">
+      <c r="Q33">
         <v>6.9580712022504806E-2</v>
       </c>
-      <c r="P31">
+      <c r="R33">
         <v>6.7630356030904698E-2</v>
       </c>
-      <c r="Q31">
+      <c r="S33">
         <v>4.5218579095580302E-2</v>
       </c>
-      <c r="R31">
+      <c r="T33">
         <v>3.3891637591521903E-2</v>
       </c>
-      <c r="S31">
+      <c r="U33">
         <v>4.3918734317347802E-2</v>
       </c>
-      <c r="T31">
+      <c r="V33">
         <v>5.5857801037150601E-2</v>
       </c>
-      <c r="U31">
+      <c r="W33">
         <v>5.1128593516586301E-2</v>
       </c>
-      <c r="V31">
+      <c r="X33">
         <v>6.8208563423653501E-2</v>
       </c>
-      <c r="W31">
+      <c r="Y33">
         <v>7.4684004094955306E-2</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>1.27626168643418E-3</v>
       </c>
-      <c r="C32">
+      <c r="E34">
         <v>8.9820515210214304E-3</v>
       </c>
-      <c r="D32">
+      <c r="F34">
         <v>0.11572055978423899</v>
       </c>
-      <c r="E32">
+      <c r="G34">
         <v>1.54772336195896E-3</v>
       </c>
-      <c r="F32">
+      <c r="H34">
         <v>4.0951756504518197E-2</v>
       </c>
-      <c r="G32">
+      <c r="I34">
         <v>4.8155938095037099E-2</v>
       </c>
-      <c r="H32">
+      <c r="J34">
         <v>4.8459032379553702E-3</v>
       </c>
-      <c r="I32">
+      <c r="K34">
         <v>2.1197159307758499E-2</v>
       </c>
-      <c r="J32">
+      <c r="L34">
         <v>4.2199862669123303E-2</v>
       </c>
-      <c r="K32">
+      <c r="M34">
         <v>3.92445842865701E-2</v>
       </c>
-      <c r="L32">
+      <c r="N34">
         <v>6.1013275795076802E-2</v>
       </c>
-      <c r="M32">
+      <c r="O34">
         <v>4.5522849745624601E-2</v>
       </c>
-      <c r="N32">
+      <c r="P34">
         <v>2.4883529147992699E-2</v>
       </c>
-      <c r="O32">
+      <c r="Q34">
         <v>6.3881187662302899E-2</v>
       </c>
-      <c r="P32">
+      <c r="R34">
         <v>5.1328668040112699E-2</v>
       </c>
-      <c r="Q32">
+      <c r="S34">
         <v>6.6856324409128101E-2</v>
       </c>
-      <c r="R32">
+      <c r="T34">
         <v>5.0433181159754703E-2</v>
       </c>
-      <c r="S32">
+      <c r="U34">
         <v>5.5165082829404598E-2</v>
       </c>
-      <c r="T32">
+      <c r="V34">
         <v>6.4424294076563596E-2</v>
       </c>
-      <c r="U32">
+      <c r="W34">
         <v>5.6548434591471901E-2</v>
       </c>
-      <c r="V32">
+      <c r="X34">
         <v>5.4557294136932999E-2</v>
       </c>
-      <c r="W32">
+      <c r="Y34">
         <v>8.1264077951018907E-2</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>2.2898934804088701E-3</v>
       </c>
-      <c r="C33">
+      <c r="E35">
         <v>6.9984670431519997E-3</v>
       </c>
-      <c r="D33">
+      <c r="F35">
         <v>2.68110085320027E-2</v>
       </c>
-      <c r="E33">
+      <c r="G35">
         <v>4.3716927171014597E-3</v>
       </c>
-      <c r="F33">
+      <c r="H35">
         <v>2.6820275717904001E-2</v>
       </c>
-      <c r="G33">
+      <c r="I35">
         <v>4.79581836874763E-2</v>
       </c>
-      <c r="H33">
+      <c r="J35">
         <v>1.9739690796894801E-2</v>
       </c>
-      <c r="I33">
+      <c r="K35">
         <v>2.62522948450261E-2</v>
       </c>
-      <c r="J33">
+      <c r="L35">
         <v>4.16135285155666E-2</v>
       </c>
-      <c r="K33">
+      <c r="M35">
         <v>6.6251798684324098E-2</v>
       </c>
-      <c r="L33">
+      <c r="N35">
         <v>7.7413939738763399E-2</v>
       </c>
-      <c r="M33">
+      <c r="O35">
         <v>5.7392432263404902E-2</v>
       </c>
-      <c r="N33">
+      <c r="P35">
         <v>1.470246084555E-2</v>
       </c>
-      <c r="O33">
+      <c r="Q35">
         <v>5.4382212406843398E-2</v>
       </c>
-      <c r="P33">
+      <c r="R35">
         <v>3.7497744137004303E-2</v>
       </c>
-      <c r="Q33">
+      <c r="S35">
         <v>8.8249593577609906E-2</v>
       </c>
-      <c r="R33">
+      <c r="T35">
         <v>7.2414734174945997E-2</v>
       </c>
-      <c r="S33">
+      <c r="U35">
         <v>6.7433998548880894E-2</v>
       </c>
-      <c r="T33">
+      <c r="V35">
         <v>8.0787061541140195E-2</v>
       </c>
-      <c r="U33">
+      <c r="W35">
         <v>7.5274178947032894E-2</v>
       </c>
-      <c r="V33">
+      <c r="X35">
         <v>4.9598150877925601E-2</v>
       </c>
-      <c r="W33">
+      <c r="Y35">
         <v>5.5746658921041699E-2</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>7.5992507262448106E-2</v>
       </c>
-      <c r="C34">
+      <c r="E36">
         <v>4.4276518637560699E-2</v>
       </c>
-      <c r="D34">
+      <c r="F36">
         <v>6.90573634709261E-2</v>
       </c>
-      <c r="E34">
+      <c r="G36">
         <v>8.9421318022169599E-2</v>
       </c>
-      <c r="F34">
+      <c r="H36">
         <v>5.63673118575568E-2</v>
       </c>
-      <c r="G34">
+      <c r="I36">
         <v>4.53627862974329E-2</v>
       </c>
-      <c r="H34">
+      <c r="J36">
         <v>7.46324397876829E-2</v>
       </c>
-      <c r="I34">
+      <c r="K36">
         <v>4.6404039536583501E-2</v>
       </c>
-      <c r="J34">
+      <c r="L36">
         <v>5.1239917159838798E-2</v>
       </c>
-      <c r="K34">
+      <c r="M36">
         <v>2.1545562039444601E-2</v>
       </c>
-      <c r="L34">
+      <c r="N36">
         <v>3.4530655066196202E-2</v>
       </c>
-      <c r="M34">
+      <c r="O36">
         <v>3.09151110161234E-2</v>
       </c>
-      <c r="N34">
+      <c r="P36">
         <v>4.1119311953064099E-2</v>
       </c>
-      <c r="O34">
+      <c r="Q36">
         <v>4.5214786121153899E-2</v>
       </c>
-      <c r="P34">
+      <c r="R36">
         <v>3.9609998205834197E-2</v>
       </c>
-      <c r="Q34">
+      <c r="S36">
         <v>3.53434576729863E-2</v>
       </c>
-      <c r="R34">
+      <c r="T36">
         <v>2.7753315016545502E-2</v>
       </c>
-      <c r="S34">
+      <c r="U36">
         <v>2.7364651380113701E-2</v>
       </c>
-      <c r="T34">
+      <c r="V36">
         <v>3.6695037912497397E-2</v>
       </c>
-      <c r="U34">
+      <c r="W36">
         <v>3.5831841780220801E-2</v>
       </c>
-      <c r="V34">
+      <c r="X36">
         <v>3.4493943938235197E-2</v>
       </c>
-      <c r="W34">
+      <c r="Y36">
         <v>3.68281258653851E-2</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.3070653834129101E-2</v>
-      </c>
-      <c r="C35">
-        <v>0.112183198668592</v>
-      </c>
-      <c r="D35">
-        <v>0.12964910506990801</v>
-      </c>
-      <c r="E35">
-        <v>1.9240885506280201E-2</v>
-      </c>
-      <c r="F35">
-        <v>8.1199777140193705E-2</v>
-      </c>
-      <c r="G35">
-        <v>5.1764706781447102E-2</v>
-      </c>
-      <c r="H35">
-        <v>1.5153646277787E-2</v>
-      </c>
-      <c r="I35">
-        <v>1.58764830642532E-2</v>
-      </c>
-      <c r="J35">
-        <v>3.2146912408533498E-2</v>
-      </c>
-      <c r="K35">
-        <v>1.7679155571795099E-2</v>
-      </c>
-      <c r="L35">
-        <v>5.2993134629579497E-2</v>
-      </c>
-      <c r="M35">
-        <v>2.8907629131478599E-2</v>
-      </c>
-      <c r="N35">
-        <v>2.3068265492775401E-2</v>
-      </c>
-      <c r="O35">
-        <v>4.1458123281531201E-2</v>
-      </c>
-      <c r="P35">
-        <v>3.4470404527642898E-2</v>
-      </c>
-      <c r="Q35">
-        <v>3.90466069924831E-2</v>
-      </c>
-      <c r="R35">
-        <v>1.7976998555511301E-2</v>
-      </c>
-      <c r="S35">
-        <v>1.6523745749388499E-2</v>
-      </c>
-      <c r="T35">
-        <v>5.7683187215385803E-2</v>
-      </c>
-      <c r="U35">
-        <v>6.3024113996527895E-2</v>
-      </c>
-      <c r="V35">
-        <v>6.4279774632278894E-2</v>
-      </c>
-      <c r="W35">
-        <v>3.2603491472497997E-2</v>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1.0931418561344699E-4</v>
+      </c>
+      <c r="E37">
+        <v>4.5926882332212601E-4</v>
+      </c>
+      <c r="F37">
+        <v>3.5864536445431201E-3</v>
+      </c>
+      <c r="G37">
+        <v>1.7592337731321399E-4</v>
+      </c>
+      <c r="H37">
+        <v>1.7512493243028999E-3</v>
+      </c>
+      <c r="I37">
+        <v>2.22111818679715E-3</v>
+      </c>
+      <c r="J37">
+        <v>1.36431992625728E-3</v>
+      </c>
+      <c r="K37">
+        <v>2.8336535845153801E-2</v>
+      </c>
+      <c r="L37">
+        <v>2.31106401500058E-3</v>
+      </c>
+      <c r="M37">
+        <v>3.4182729115152202E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.17206899597168199</v>
+      </c>
+      <c r="O37">
+        <v>3.3272400307390003E-2</v>
+      </c>
+      <c r="P37">
+        <v>1.86920630214277E-3</v>
+      </c>
+      <c r="Q37">
+        <v>6.4764812325977502E-3</v>
+      </c>
+      <c r="R37">
+        <v>1.7610464057803799E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.142964746281002</v>
+      </c>
+      <c r="T37">
+        <v>2.0294160313728399E-2</v>
+      </c>
+      <c r="U37">
+        <v>2.9999698512555999E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.16338542187978899</v>
+      </c>
+      <c r="W37">
+        <v>0.14406881690771101</v>
+      </c>
+      <c r="X37">
+        <v>0.10106082606132399</v>
+      </c>
+      <c r="Y37">
+        <v>9.2430805728817206E-2</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>2.6825185596377699E-2</v>
-      </c>
-      <c r="C36">
-        <v>2.67103778581168E-2</v>
-      </c>
-      <c r="D36">
-        <v>2.58470524097054E-2</v>
-      </c>
-      <c r="E36">
-        <v>1.9848501294791401E-2</v>
-      </c>
-      <c r="F36">
-        <v>3.3468947749811601E-2</v>
-      </c>
-      <c r="G36">
-        <v>3.85142980040915E-2</v>
-      </c>
-      <c r="H36">
-        <v>5.5346796694512097E-2</v>
-      </c>
-      <c r="I36">
-        <v>9.3322681874275601E-2</v>
-      </c>
-      <c r="J36">
-        <v>4.7918964962254798E-2</v>
-      </c>
-      <c r="K36">
-        <v>7.6010984078583504E-2</v>
-      </c>
-      <c r="L36">
-        <v>5.3959272492116399E-2</v>
-      </c>
-      <c r="M36">
-        <v>4.0201536716505802E-2</v>
-      </c>
-      <c r="N36">
-        <v>5.8311516710519498E-2</v>
-      </c>
-      <c r="O36">
-        <v>4.2473299797344703E-2</v>
-      </c>
-      <c r="P36">
-        <v>3.8606852259093001E-2</v>
-      </c>
-      <c r="Q36">
-        <v>6.5742817487938199E-2</v>
-      </c>
-      <c r="R36">
-        <v>5.3890616395188301E-2</v>
-      </c>
-      <c r="S36">
-        <v>5.08406619067715E-2</v>
-      </c>
-      <c r="T36">
-        <v>4.7100048504623099E-2</v>
-      </c>
-      <c r="U36">
-        <v>3.1169456989271201E-2</v>
-      </c>
-      <c r="V36">
-        <v>2.6091353487334799E-2</v>
-      </c>
-      <c r="W36">
-        <v>4.7798776730773103E-2</v>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2.71359154607878E-2</v>
+      </c>
+      <c r="E38">
+        <v>5.9138846065498601E-2</v>
+      </c>
+      <c r="F38">
+        <v>6.6054073766691396E-2</v>
+      </c>
+      <c r="G38">
+        <v>1.32236184654334E-2</v>
+      </c>
+      <c r="H38">
+        <v>5.13284069267659E-2</v>
+      </c>
+      <c r="I38">
+        <v>4.2716496905932502E-2</v>
+      </c>
+      <c r="J38">
+        <v>4.1533800573070101E-2</v>
+      </c>
+      <c r="K38">
+        <v>7.1669682687313802E-2</v>
+      </c>
+      <c r="L38">
+        <v>4.2644438595541102E-2</v>
+      </c>
+      <c r="M38">
+        <v>5.9181019232719803E-2</v>
+      </c>
+      <c r="N38">
+        <v>5.2362472078858802E-2</v>
+      </c>
+      <c r="O38">
+        <v>3.5423498633959903E-2</v>
+      </c>
+      <c r="P38">
+        <v>4.8591382265495399E-2</v>
+      </c>
+      <c r="Q38">
+        <v>4.2274721180607697E-2</v>
+      </c>
+      <c r="R38">
+        <v>3.7866169687919601E-2</v>
+      </c>
+      <c r="S38">
+        <v>5.63388072312914E-2</v>
+      </c>
+      <c r="T38">
+        <v>4.2089487168145798E-2</v>
+      </c>
+      <c r="U38">
+        <v>3.85566776649292E-2</v>
+      </c>
+      <c r="V38">
+        <v>5.0423530679520101E-2</v>
+      </c>
+      <c r="W38">
+        <v>4.06320100745311E-2</v>
+      </c>
+      <c r="X38">
+        <v>3.8421503736269097E-2</v>
+      </c>
+      <c r="Y38">
+        <v>4.2393440918717398E-2</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3.3416102731283502E-2</v>
-      </c>
-      <c r="C37">
-        <v>6.3430876781967696E-2</v>
-      </c>
-      <c r="D37">
-        <v>0.10893016669413499</v>
-      </c>
-      <c r="E37">
-        <v>5.77358185504913E-2</v>
-      </c>
-      <c r="F37">
-        <v>7.2876276038568305E-2</v>
-      </c>
-      <c r="G37">
-        <v>0.101866993092178</v>
-      </c>
-      <c r="H37">
-        <v>3.7303979735468902E-2</v>
-      </c>
-      <c r="I37">
-        <v>6.7811368985285003E-2</v>
-      </c>
-      <c r="J37">
-        <v>6.5527177999538305E-2</v>
-      </c>
-      <c r="K37">
-        <v>2.7150102848513099E-2</v>
-      </c>
-      <c r="L37">
-        <v>2.7195457145208799E-2</v>
-      </c>
-      <c r="M37">
-        <v>2.5536657632957701E-2</v>
-      </c>
-      <c r="N37">
-        <v>1.7152912063817399E-2</v>
-      </c>
-      <c r="O37">
-        <v>6.1230210042886701E-2</v>
-      </c>
-      <c r="P37">
-        <v>2.4745535884626701E-2</v>
-      </c>
-      <c r="Q37">
-        <v>2.32365555723015E-2</v>
-      </c>
-      <c r="R37">
-        <v>3.0461320741840301E-2</v>
-      </c>
-      <c r="S37">
-        <v>3.4946103996395902E-2</v>
-      </c>
-      <c r="T37">
-        <v>2.5618839953611298E-2</v>
-      </c>
-      <c r="U37">
-        <v>2.4998689719811298E-2</v>
-      </c>
-      <c r="V37">
-        <v>3.5910424298544803E-2</v>
-      </c>
-      <c r="W37">
-        <v>3.2918429490569098E-2</v>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>6.6165066210793599E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.7210010149976398E-2</v>
+      </c>
+      <c r="F39">
+        <v>6.3300652499597002E-2</v>
+      </c>
+      <c r="G39">
+        <v>5.9187135117083498E-2</v>
+      </c>
+      <c r="H39">
+        <v>5.1458450958752802E-2</v>
+      </c>
+      <c r="I39">
+        <v>4.6040084087867202E-2</v>
+      </c>
+      <c r="J39">
+        <v>3.9475939734983603E-2</v>
+      </c>
+      <c r="K39">
+        <v>5.3884958385589501E-2</v>
+      </c>
+      <c r="L39">
+        <v>4.2023353532330297E-2</v>
+      </c>
+      <c r="M39">
+        <v>3.4803761282430901E-2</v>
+      </c>
+      <c r="N39">
+        <v>4.32742587549447E-2</v>
+      </c>
+      <c r="O39">
+        <v>3.8879251380123402E-2</v>
+      </c>
+      <c r="P39">
+        <v>3.0664884582278899E-2</v>
+      </c>
+      <c r="Q39">
+        <v>4.50178442020185E-2</v>
+      </c>
+      <c r="R39">
+        <v>3.5842834399840998E-2</v>
+      </c>
+      <c r="S39">
+        <v>4.19330961464724E-2</v>
+      </c>
+      <c r="T39">
+        <v>3.7989197139181599E-2</v>
+      </c>
+      <c r="U39">
+        <v>4.0301619352824697E-2</v>
+      </c>
+      <c r="V39">
+        <v>4.3201973861224902E-2</v>
+      </c>
+      <c r="W39">
+        <v>4.3397974171843802E-2</v>
+      </c>
+      <c r="X39">
+        <v>4.64044854985581E-2</v>
+      </c>
+      <c r="Y39">
+        <v>3.95431685512833E-2</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6.2680648789334603E-2</v>
-      </c>
-      <c r="C38">
-        <v>4.7315346099083201E-2</v>
-      </c>
-      <c r="D38">
-        <v>4.2309616403933999E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.10197888137526399</v>
-      </c>
-      <c r="F38">
-        <v>4.9967963576762503E-2</v>
-      </c>
-      <c r="G38">
-        <v>4.6496763455818699E-2</v>
-      </c>
-      <c r="H38">
-        <v>9.5229900117081198E-2</v>
-      </c>
-      <c r="I38">
-        <v>4.1101781451445198E-2</v>
-      </c>
-      <c r="J38">
-        <v>6.7646555753408194E-2</v>
-      </c>
-      <c r="K38">
-        <v>2.9178136127249399E-2</v>
-      </c>
-      <c r="L38">
-        <v>2.9520280495101602E-2</v>
-      </c>
-      <c r="M38">
-        <v>4.1693013696274803E-2</v>
-      </c>
-      <c r="N38">
-        <v>4.5554638534159399E-2</v>
-      </c>
-      <c r="O38">
-        <v>4.8606217786466198E-2</v>
-      </c>
-      <c r="P38">
-        <v>4.1141163834645902E-2</v>
-      </c>
-      <c r="Q38">
-        <v>2.8115432312291001E-2</v>
-      </c>
-      <c r="R38">
-        <v>3.3515481858245599E-2</v>
-      </c>
-      <c r="S38">
-        <v>3.3106800321948897E-2</v>
-      </c>
-      <c r="T38">
-        <v>2.88097960921655E-2</v>
-      </c>
-      <c r="U38">
-        <v>2.6389775043743902E-2</v>
-      </c>
-      <c r="V38">
-        <v>3.0965830126353899E-2</v>
-      </c>
-      <c r="W38">
-        <v>2.86759767492227E-2</v>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>6.19454673858056E-2</v>
+      </c>
+      <c r="E40">
+        <v>6.2667550786611695E-2</v>
+      </c>
+      <c r="F40">
+        <v>8.1385148718662703E-2</v>
+      </c>
+      <c r="G40">
+        <v>8.6838431617889802E-2</v>
+      </c>
+      <c r="H40">
+        <v>6.9061448225213901E-2</v>
+      </c>
+      <c r="I40">
+        <v>8.2296796023234406E-2</v>
+      </c>
+      <c r="J40">
+        <v>7.9637755356601198E-2</v>
+      </c>
+      <c r="K40">
+        <v>3.1327454469329302E-2</v>
+      </c>
+      <c r="L40">
+        <v>7.5838329817019504E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.1488108440309302E-2</v>
+      </c>
+      <c r="N40">
+        <v>2.51809637278303E-2</v>
+      </c>
+      <c r="O40">
+        <v>3.1440848757246703E-2</v>
+      </c>
+      <c r="P40">
+        <v>3.42819770663082E-2</v>
+      </c>
+      <c r="Q40">
+        <v>5.5733715674211301E-2</v>
+      </c>
+      <c r="R40">
+        <v>3.1407322679212098E-2</v>
+      </c>
+      <c r="S40">
+        <v>2.1034995811391899E-2</v>
+      </c>
+      <c r="T40">
+        <v>2.54475602426355E-2</v>
+      </c>
+      <c r="U40">
+        <v>2.5102300139784199E-2</v>
+      </c>
+      <c r="V40">
+        <v>2.2515604626785202E-2</v>
+      </c>
+      <c r="W40">
+        <v>2.18156154023675E-2</v>
+      </c>
+      <c r="X40">
+        <v>2.85206200942273E-2</v>
+      </c>
+      <c r="Y40">
+        <v>2.5031984937322699E-2</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>7.6705056442663202E-3</v>
-      </c>
-      <c r="C39">
-        <v>1.34077451089883E-2</v>
-      </c>
-      <c r="D39">
-        <v>2.18408255274939E-2</v>
-      </c>
-      <c r="E39">
-        <v>1.9124183622255299E-2</v>
-      </c>
-      <c r="F39">
-        <v>1.9207216232992801E-2</v>
-      </c>
-      <c r="G39">
-        <v>2.1039589259827199E-2</v>
-      </c>
-      <c r="H39">
-        <v>2.1576150110891298E-2</v>
-      </c>
-      <c r="I39">
-        <v>3.33257865994789E-2</v>
-      </c>
-      <c r="J39">
-        <v>2.66449093190281E-2</v>
-      </c>
-      <c r="K39">
-        <v>6.6178821552782804E-2</v>
-      </c>
-      <c r="L39">
-        <v>8.9512794731452697E-2</v>
-      </c>
-      <c r="M39">
-        <v>3.7406711791530503E-2</v>
-      </c>
-      <c r="N39">
-        <v>2.6231598267988099E-2</v>
-      </c>
-      <c r="O39">
-        <v>3.4207913786035798E-2</v>
-      </c>
-      <c r="P39">
-        <v>4.80812323834977E-2</v>
-      </c>
-      <c r="Q39">
-        <v>9.3691718324976303E-2</v>
-      </c>
-      <c r="R39">
-        <v>5.0935111998476897E-2</v>
-      </c>
-      <c r="S39">
-        <v>4.83715358546917E-2</v>
-      </c>
-      <c r="T39">
-        <v>8.7665126783236694E-2</v>
-      </c>
-      <c r="U39">
-        <v>7.0427261202496302E-2</v>
-      </c>
-      <c r="V39">
-        <v>7.9170294128623794E-2</v>
-      </c>
-      <c r="W39">
-        <v>8.4282967768988401E-2</v>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2.4372452915100699E-2</v>
+      </c>
+      <c r="E41">
+        <v>3.9732372383533401E-2</v>
+      </c>
+      <c r="F41">
+        <v>4.4575598630675103E-2</v>
+      </c>
+      <c r="G41">
+        <v>3.7239240712712098E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.4145998132927702E-2</v>
+      </c>
+      <c r="I41">
+        <v>4.5552413671239397E-2</v>
+      </c>
+      <c r="J41">
+        <v>4.5832698605889198E-2</v>
+      </c>
+      <c r="K41">
+        <v>4.0073777105222599E-2</v>
+      </c>
+      <c r="L41">
+        <v>4.9439318019722803E-2</v>
+      </c>
+      <c r="M41">
+        <v>4.1436448809736202E-2</v>
+      </c>
+      <c r="N41">
+        <v>4.7160223061250603E-2</v>
+      </c>
+      <c r="O41">
+        <v>4.88065145161556E-2</v>
+      </c>
+      <c r="P41">
+        <v>4.7966031681684597E-2</v>
+      </c>
+      <c r="Q41">
+        <v>5.7391546206134597E-2</v>
+      </c>
+      <c r="R41">
+        <v>5.6355121893656303E-2</v>
+      </c>
+      <c r="S41">
+        <v>4.6613755791069897E-2</v>
+      </c>
+      <c r="T41">
+        <v>4.45778822674089E-2</v>
+      </c>
+      <c r="U41">
+        <v>5.1734031897446797E-2</v>
+      </c>
+      <c r="V41">
+        <v>4.7262619616744501E-2</v>
+      </c>
+      <c r="W41">
+        <v>4.5068206547859903E-2</v>
+      </c>
+      <c r="X41">
+        <v>4.57889717812573E-2</v>
+      </c>
+      <c r="Y41">
+        <v>4.8874775752571799E-2</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5.29554586748135E-5</v>
-      </c>
-      <c r="C40">
-        <v>5.4222928046649202E-4</v>
-      </c>
-      <c r="D40">
-        <v>4.1633233303047697E-3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>5.0895895489825799E-5</v>
-      </c>
-      <c r="F40">
-        <v>3.2401575303921699E-3</v>
-      </c>
-      <c r="G40">
-        <v>7.8645826251759095E-3</v>
-      </c>
-      <c r="H40">
-        <v>9.4331280266027405E-4</v>
-      </c>
-      <c r="I40">
-        <v>2.3762422963548E-2</v>
-      </c>
-      <c r="J40">
-        <v>4.5896703736878599E-3</v>
-      </c>
-      <c r="K40">
-        <v>8.5178710528410695E-2</v>
-      </c>
-      <c r="L40">
-        <v>0.145031990886828</v>
-      </c>
-      <c r="M40">
-        <v>2.32378682495703E-2</v>
-      </c>
-      <c r="N40">
-        <v>9.944997938126979E-4</v>
-      </c>
-      <c r="O40">
-        <v>7.5777966117629401E-3</v>
-      </c>
-      <c r="P40">
-        <v>3.80392992076002E-2</v>
-      </c>
-      <c r="Q40">
-        <v>0.144005305612562</v>
-      </c>
-      <c r="R40">
-        <v>5.6895070295119199E-2</v>
-      </c>
-      <c r="S40">
-        <v>4.3661094554956301E-2</v>
-      </c>
-      <c r="T40">
-        <v>0.112877263279955</v>
-      </c>
-      <c r="U40">
-        <v>0.105568749594357</v>
-      </c>
-      <c r="V40">
-        <v>0.114054029369331</v>
-      </c>
-      <c r="W40">
-        <v>7.7668771755334404E-2</v>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1.44354813339588E-4</v>
+      </c>
+      <c r="E42">
+        <v>5.4098837604153196E-4</v>
+      </c>
+      <c r="F42">
+        <v>3.0954356980645598E-3</v>
+      </c>
+      <c r="G42">
+        <v>3.6400899032286199E-4</v>
+      </c>
+      <c r="H42">
+        <v>2.2920902382480598E-3</v>
+      </c>
+      <c r="I42">
+        <v>2.6193964151192501E-3</v>
+      </c>
+      <c r="J42">
+        <v>1.6119226052207301E-3</v>
+      </c>
+      <c r="K42">
+        <v>2.5079609834144999E-2</v>
+      </c>
+      <c r="L42">
+        <v>2.5408419809598002E-3</v>
+      </c>
+      <c r="M42">
+        <v>8.6851731368301502E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.138004748102726</v>
+      </c>
+      <c r="O42">
+        <v>2.4695374490170299E-2</v>
+      </c>
+      <c r="P42">
+        <v>2.54167293591074E-3</v>
+      </c>
+      <c r="Q42">
+        <v>8.0413160002898408E-3</v>
+      </c>
+      <c r="R42">
+        <v>3.7928916798156097E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.141185080452783</v>
+      </c>
+      <c r="T42">
+        <v>5.5936126876024297E-2</v>
+      </c>
+      <c r="U42">
+        <v>4.3680312649121797E-2</v>
+      </c>
+      <c r="V42">
+        <v>0.116962006138081</v>
+      </c>
+      <c r="W42">
+        <v>9.9832098844701206E-2</v>
+      </c>
+      <c r="X42">
+        <v>0.11413717183097501</v>
+      </c>
+      <c r="Y42">
+        <v>9.1914794561297294E-2</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.0307036786678002E-4</v>
+      </c>
+      <c r="E43">
+        <v>1.0761932070989501E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.195813059473187</v>
+      </c>
+      <c r="G43">
+        <v>1.9004252320367499E-3</v>
+      </c>
+      <c r="H43">
+        <v>0.152326821462965</v>
+      </c>
+      <c r="I43">
+        <v>0.36711977525200601</v>
+      </c>
+      <c r="J43">
+        <v>4.5503577565724802E-4</v>
+      </c>
+      <c r="K43">
+        <v>1.06627227175843E-4</v>
+      </c>
+      <c r="L43">
+        <v>0.14952377564910099</v>
+      </c>
+      <c r="M43">
+        <v>9.6827672899050502E-4</v>
+      </c>
+      <c r="N43">
+        <v>2.0042387970064902E-2</v>
+      </c>
+      <c r="O43">
+        <v>4.4260674220894802E-3</v>
+      </c>
+      <c r="P43">
+        <v>9.1189199423940301E-4</v>
+      </c>
+      <c r="Q43">
+        <v>5.3626487737783599E-2</v>
+      </c>
+      <c r="R43">
+        <v>3.70986665128376E-3</v>
+      </c>
+      <c r="S43">
+        <v>3.9610534557668202E-4</v>
+      </c>
+      <c r="T43">
+        <v>2.4607949692130602E-3</v>
+      </c>
+      <c r="U43">
+        <v>3.4110676002534401E-3</v>
+      </c>
+      <c r="V43">
+        <v>1.6201354059878299E-3</v>
+      </c>
+      <c r="W43">
+        <v>1.7096291590891701E-3</v>
+      </c>
+      <c r="X43">
+        <v>9.3088027055851803E-3</v>
+      </c>
+      <c r="Y43">
+        <v>1.9097963798857399E-2</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>2.6815235781458099E-4</v>
       </c>
-      <c r="C41">
+      <c r="E44">
         <v>6.3119039860541398E-4</v>
       </c>
-      <c r="D41">
+      <c r="F44">
         <v>6.6107929432569499E-3</v>
       </c>
-      <c r="E41">
+      <c r="G44">
         <v>4.5369267505402001E-4</v>
       </c>
-      <c r="F41">
+      <c r="H44">
         <v>4.2820918438748901E-3</v>
       </c>
-      <c r="G41">
+      <c r="I44">
         <v>1.15558429191975E-2</v>
       </c>
-      <c r="H41">
+      <c r="J44">
         <v>2.6082945752853599E-3</v>
       </c>
-      <c r="I41">
+      <c r="K44">
         <v>1.81597333982037E-2</v>
       </c>
-      <c r="J41">
+      <c r="L44">
         <v>1.00416116592857E-2</v>
       </c>
-      <c r="K41">
+      <c r="M44">
         <v>5.3561589485758697E-2</v>
       </c>
-      <c r="L41">
+      <c r="N44">
         <v>0.119627316189373</v>
       </c>
-      <c r="M41">
+      <c r="O44">
         <v>3.7903366007984399E-2</v>
       </c>
-      <c r="N41">
+      <c r="P44">
         <v>5.2992195802937202E-3</v>
       </c>
-      <c r="O41">
+      <c r="Q44">
         <v>1.8602477545540199E-2</v>
       </c>
-      <c r="P41">
+      <c r="R44">
         <v>2.34637726303965E-2</v>
       </c>
-      <c r="Q41">
+      <c r="S44">
         <v>0.122216319294635</v>
       </c>
-      <c r="R41">
+      <c r="T44">
         <v>6.7831616106511006E-2</v>
       </c>
-      <c r="S41">
+      <c r="U44">
         <v>6.7988046221884701E-2</v>
       </c>
-      <c r="T41">
+      <c r="V44">
         <v>0.14708685095038901</v>
       </c>
-      <c r="U41">
+      <c r="W44">
         <v>0.127758953359497</v>
       </c>
-      <c r="V41">
+      <c r="X44">
         <v>7.0324032684271398E-2</v>
       </c>
-      <c r="W41">
+      <c r="Y44">
         <v>8.3725037172887304E-2</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>3.9390024206355602E-2</v>
       </c>
-      <c r="C42">
+      <c r="E45">
         <v>2.8714158525985099E-2</v>
       </c>
-      <c r="D42">
+      <c r="F45">
         <v>3.6253158067982898E-2</v>
       </c>
-      <c r="E42">
+      <c r="G45">
         <v>5.3791845280438601E-2</v>
       </c>
-      <c r="F42">
+      <c r="H45">
         <v>3.7402035619604798E-2</v>
       </c>
-      <c r="G42">
+      <c r="I45">
         <v>4.3063436436044197E-2</v>
       </c>
-      <c r="H42">
+      <c r="J45">
         <v>5.60287126073701E-2</v>
       </c>
-      <c r="I42">
+      <c r="K45">
         <v>4.5910673068117101E-2</v>
       </c>
-      <c r="J42">
+      <c r="L45">
         <v>5.8935504427089599E-2</v>
       </c>
-      <c r="K42">
+      <c r="M45">
         <v>3.9631020464045701E-2</v>
       </c>
-      <c r="L42">
+      <c r="N45">
         <v>3.7434751070935197E-2</v>
       </c>
-      <c r="M42">
+      <c r="O45">
         <v>5.9661895182498502E-2</v>
       </c>
-      <c r="N42">
+      <c r="P45">
         <v>8.3485469233285606E-2</v>
       </c>
-      <c r="O42">
+      <c r="Q45">
         <v>5.4888684294190901E-2</v>
       </c>
-      <c r="P42">
+      <c r="R45">
         <v>5.5248663724750402E-2</v>
       </c>
-      <c r="Q42">
+      <c r="S45">
         <v>3.9580296949545402E-2</v>
       </c>
-      <c r="R42">
+      <c r="T45">
         <v>4.1224044318891498E-2</v>
       </c>
-      <c r="S42">
+      <c r="U45">
         <v>4.2375459585242199E-2</v>
       </c>
-      <c r="T42">
+      <c r="V45">
         <v>3.9079506166564901E-2</v>
       </c>
-      <c r="U42">
+      <c r="W45">
         <v>3.4723281825244E-2</v>
       </c>
-      <c r="V42">
+      <c r="X45">
         <v>3.3857043632459997E-2</v>
       </c>
-      <c r="W42">
+      <c r="Y45">
         <v>3.9320335313357699E-2</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>9.4267559728895903E-3</v>
       </c>
-      <c r="C43">
+      <c r="E46">
         <v>4.76307034906599E-3</v>
       </c>
-      <c r="D43">
+      <c r="F46">
         <v>1.11596234371032E-3</v>
       </c>
-      <c r="E43">
+      <c r="G46">
         <v>5.1499572881404498E-2</v>
       </c>
-      <c r="F43">
+      <c r="H46">
         <v>1.7978059223712001E-2</v>
       </c>
-      <c r="G43">
+      <c r="I46">
         <v>1.25031880489285E-2</v>
       </c>
-      <c r="H43">
+      <c r="J46">
         <v>7.2724295243728407E-2</v>
       </c>
-      <c r="I43">
+      <c r="K46">
         <v>0.100001757412655</v>
       </c>
-      <c r="J43">
+      <c r="L46">
         <v>3.4583653821941E-2</v>
       </c>
-      <c r="K43">
+      <c r="M46">
         <v>0.124892234241868</v>
       </c>
-      <c r="L43">
+      <c r="N46">
         <v>2.6101560666997901E-2</v>
       </c>
-      <c r="M43">
+      <c r="O46">
         <v>6.0953240378767398E-2</v>
       </c>
-      <c r="N43">
+      <c r="P46">
         <v>6.8518043670103196E-2</v>
       </c>
-      <c r="O43">
+      <c r="Q46">
         <v>1.6020050879194999E-2</v>
       </c>
-      <c r="P43">
+      <c r="R46">
         <v>6.3413947893959502E-2</v>
       </c>
-      <c r="Q43">
+      <c r="S46">
         <v>3.25277654117287E-2</v>
       </c>
-      <c r="R43">
+      <c r="T46">
         <v>8.0848315703785298E-2</v>
       </c>
-      <c r="S43">
+      <c r="U46">
         <v>7.8318944101486404E-2</v>
       </c>
-      <c r="T43">
+      <c r="V46">
         <v>2.7251986552415699E-2</v>
       </c>
-      <c r="U43">
+      <c r="W46">
         <v>1.2696461394600501E-2</v>
       </c>
-      <c r="V43">
+      <c r="X46">
         <v>1.9167265418392001E-2</v>
       </c>
-      <c r="W43">
+      <c r="Y46">
         <v>8.4693868388665397E-2</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>3.0582375618879699E-2</v>
       </c>
-      <c r="C44">
+      <c r="E47">
         <v>2.0929952158551101E-2</v>
       </c>
-      <c r="D44">
+      <c r="F47">
         <v>1.06079034249352E-2</v>
       </c>
-      <c r="E44">
+      <c r="G47">
         <v>4.6381725933509602E-2</v>
       </c>
-      <c r="F44">
+      <c r="H47">
         <v>2.2044016463391301E-2</v>
       </c>
-      <c r="G44">
+      <c r="I47">
         <v>3.0464527434714402E-2</v>
       </c>
-      <c r="H44">
+      <c r="J47">
         <v>7.2725801397428305E-2</v>
       </c>
-      <c r="I44">
+      <c r="K47">
         <v>9.6220386259270693E-2</v>
       </c>
-      <c r="J44">
+      <c r="L47">
         <v>6.0126866163498598E-2</v>
       </c>
-      <c r="K44">
+      <c r="M47">
         <v>2.89812638274792E-2</v>
       </c>
-      <c r="L44">
+      <c r="N47">
         <v>2.2283481691153802E-2</v>
       </c>
-      <c r="M44">
+      <c r="O47">
         <v>8.3872665764412296E-2</v>
       </c>
-      <c r="N44">
+      <c r="P47">
         <v>0.118179607221199</v>
       </c>
-      <c r="O44">
+      <c r="Q47">
         <v>6.2364237410265297E-2</v>
       </c>
-      <c r="P44">
+      <c r="R47">
         <v>0.10203415577958</v>
       </c>
-      <c r="Q44">
+      <c r="S47">
         <v>1.9237877875048999E-2</v>
       </c>
-      <c r="R44">
+      <c r="T47">
         <v>2.8509288731641699E-2</v>
       </c>
-      <c r="S44">
+      <c r="U47">
         <v>3.1538369101991801E-2</v>
       </c>
-      <c r="T44">
+      <c r="V47">
         <v>1.9133707713348401E-2</v>
       </c>
-      <c r="U44">
+      <c r="W47">
         <v>2.00759648006818E-2</v>
       </c>
-      <c r="V44">
+      <c r="X47">
         <v>3.7437391738718302E-2</v>
       </c>
-      <c r="W44">
+      <c r="Y47">
         <v>3.6268433490300303E-2</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>5.07844490662644E-4</v>
       </c>
-      <c r="C45">
+      <c r="E48">
         <v>1.9690402270491798E-3</v>
       </c>
-      <c r="D45">
+      <c r="F48">
         <v>1.6425940211614299E-2</v>
       </c>
-      <c r="E45">
+      <c r="G48">
         <v>8.7324853596913298E-4</v>
       </c>
-      <c r="F45">
+      <c r="H48">
         <v>1.10945364215865E-2</v>
       </c>
-      <c r="G45">
+      <c r="I48">
         <v>1.7351081928599799E-2</v>
       </c>
-      <c r="H45">
+      <c r="J48">
         <v>2.0978674454757299E-3</v>
       </c>
-      <c r="I45">
+      <c r="K48">
         <v>1.38766426314316E-2</v>
       </c>
-      <c r="J45">
+      <c r="L48">
         <v>1.2685825346566201E-2</v>
       </c>
-      <c r="K45">
+      <c r="M48">
         <v>5.2555463525208602E-2</v>
       </c>
-      <c r="L45">
+      <c r="N48">
         <v>0.128329432768506</v>
       </c>
-      <c r="M45">
+      <c r="O48">
         <v>4.3368559842113401E-2</v>
       </c>
-      <c r="N45">
+      <c r="P48">
         <v>1.3254459313208099E-3</v>
       </c>
-      <c r="O45">
+      <c r="Q48">
         <v>2.02755742842579E-2</v>
       </c>
-      <c r="P45">
+      <c r="R48">
         <v>1.0891285526451799E-2</v>
       </c>
-      <c r="Q45">
+      <c r="S48">
         <v>0.19032694280498499</v>
       </c>
-      <c r="R45">
+      <c r="T48">
         <v>3.9977334541140198E-2</v>
       </c>
-      <c r="S45">
+      <c r="U48">
         <v>3.7072754069090899E-2</v>
       </c>
-      <c r="T45">
+      <c r="V48">
         <v>0.15659072030989399</v>
       </c>
-      <c r="U45">
+      <c r="W48">
         <v>0.105157487909706</v>
       </c>
-      <c r="V45">
+      <c r="X48">
         <v>5.5973818809496999E-2</v>
       </c>
-      <c r="W45">
+      <c r="Y48">
         <v>8.1273152438872995E-2</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>1.7351583813689799E-3</v>
       </c>
-      <c r="C46">
+      <c r="E49">
         <v>5.9246603281753298E-3</v>
       </c>
-      <c r="D46">
+      <c r="F49">
         <v>5.7732984466280397E-3</v>
       </c>
-      <c r="E46">
+      <c r="G49">
         <v>7.8562288270045896E-3</v>
       </c>
-      <c r="F46">
+      <c r="H49">
         <v>2.02379785046327E-2</v>
       </c>
-      <c r="G46">
+      <c r="I49">
         <v>3.04166439830033E-2</v>
       </c>
-      <c r="H46">
+      <c r="J49">
         <v>3.4775134034918699E-2</v>
       </c>
-      <c r="I46">
+      <c r="K49">
         <v>4.4735732386340002E-2</v>
       </c>
-      <c r="J46">
+      <c r="L49">
         <v>3.6551326758270497E-2</v>
       </c>
-      <c r="K46">
+      <c r="M49">
         <v>0.109602883687494</v>
       </c>
-      <c r="L46">
+      <c r="N49">
         <v>4.72282056063782E-2</v>
       </c>
-      <c r="M46">
+      <c r="O49">
         <v>7.1353728679538403E-2</v>
       </c>
-      <c r="N46">
+      <c r="P49">
         <v>3.4885206113362099E-2</v>
       </c>
-      <c r="O46">
+      <c r="Q49">
         <v>6.3298289060171806E-2</v>
       </c>
-      <c r="P46">
+      <c r="R49">
         <v>0.15809330689041901</v>
       </c>
-      <c r="Q46">
+      <c r="S49">
         <v>5.2924032503553001E-2</v>
       </c>
-      <c r="R46">
+      <c r="T49">
         <v>6.5006917682349202E-2</v>
       </c>
-      <c r="S46">
+      <c r="U49">
         <v>4.3363760989680901E-2</v>
       </c>
-      <c r="T46">
+      <c r="V49">
         <v>3.8689825921760297E-2</v>
       </c>
-      <c r="U46">
+      <c r="W49">
         <v>2.79602523098792E-2</v>
       </c>
-      <c r="V46">
+      <c r="X49">
         <v>3.4901238177437698E-2</v>
       </c>
-      <c r="W46">
+      <c r="Y49">
         <v>6.4686190727633597E-2</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
